--- a/input/l2/WHO-SRH-21.2-mini-eng.xlsx
+++ b/input/l2/WHO-SRH-21.2-mini-eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryn\Documents\Src\WHO\smart-anc-mini\input\l2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA4B52F-68CF-4A66-8FEA-FF73A2E2550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084800C-42C6-485E-8D2F-7A6EBE610CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" firstSheet="1" activeTab="1" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
+    <workbookView xWindow="4354" yWindow="4354" windowWidth="24686" windowHeight="13260" firstSheet="1" activeTab="3" xr2:uid="{8743308B-CEBB-4E83-A8A2-EC270BF9A959}"/>
   </bookViews>
   <sheets>
     <sheet name="FP.LO.004-3. PregTestNegative" sheetId="26" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="286">
   <si>
     <t>FP.LO.004-2 Pregnancy Test Needed</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>Proceed with ANC contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceed with ANC contact </t>
   </si>
   <si>
     <t>If no danger signs are present, the health worker can continue with the normal ANC contact</t>
@@ -2152,7 +2149,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2538,9 +2535,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2550,27 +2568,6 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2583,53 +2580,56 @@
     <xf numFmtId="0" fontId="36" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3117,25 +3117,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="4.1875" customWidth="1"/>
-    <col min="2" max="9" width="11.8125" customWidth="1"/>
-    <col min="10" max="11" width="16.1875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.8125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.6875" style="24" customWidth="1"/>
-    <col min="14" max="14" width="15.6875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="21.1875" customWidth="1"/>
-    <col min="16" max="16" width="41.6875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.2109375" customWidth="1"/>
+    <col min="2" max="9" width="11.78515625" customWidth="1"/>
+    <col min="10" max="11" width="16.2109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.78515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="21.2109375" customWidth="1"/>
+    <col min="16" max="16" width="41.7109375" style="7" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.1875" customWidth="1"/>
-    <col min="21" max="21" width="16.6875" customWidth="1"/>
+    <col min="19" max="19" width="14.2109375" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
     <col min="22" max="22" width="20" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="25.1" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="25.05" customHeight="1">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="25.1" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="41"/>
     </row>
-    <row r="3" spans="1:23" s="8" customFormat="1" ht="25.05" customHeight="1">
+    <row r="3" spans="1:23" s="8" customFormat="1" ht="25.1" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="27" t="s">
         <v>7</v>
@@ -3230,7 +3230,7 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="49.05" customHeight="1">
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="49.1" customHeight="1">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
         <v>16</v>
@@ -3291,7 +3291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
 Counsel all women to come back any time they have a reason to suspect pregnancy (for example, she misses a period).</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -3429,7 +3429,7 @@
 Counsel all women to come back any time they have a reason to suspect pregnancy (for example, she misses a period).</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -3501,7 +3501,7 @@
 Counsel all women to come back any time they have a reason to suspect pregnancy (for example, she misses a period).</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -3569,7 +3569,7 @@
 Counsel all women to come back any time they have a reason to suspect pregnancy (for example, she misses a period).</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="40.1" customHeight="1">
       <c r="A9" s="15">
         <v>9</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" s="13" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:23" s="13" customFormat="1" ht="40.1" customHeight="1">
       <c r="A10" s="15">
         <v>10</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A11" s="15">
         <v>19</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A12" s="15">
         <v>22</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="40.1" customHeight="1">
       <c r="A13" s="15">
         <v>23</v>
       </c>
@@ -3867,30 +3867,30 @@
   </sheetPr>
   <dimension ref="A1:HY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="3" style="127" customWidth="1"/>
-    <col min="2" max="2" width="15.6875" style="129" customWidth="1"/>
-    <col min="3" max="3" width="33.1875" style="129" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="129" customWidth="1"/>
+    <col min="3" max="3" width="33.2109375" style="129" customWidth="1"/>
     <col min="4" max="4" width="9" style="127"/>
-    <col min="5" max="5" width="9.8125" style="127" customWidth="1"/>
-    <col min="6" max="6" width="4.6875" style="127" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="127" customWidth="1"/>
+    <col min="5" max="5" width="9.78515625" style="127" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="127" customWidth="1"/>
+    <col min="7" max="7" width="7.78515625" style="127" customWidth="1"/>
     <col min="8" max="9" width="9" style="127"/>
     <col min="10" max="10" width="8" style="127" customWidth="1"/>
     <col min="11" max="11" width="0" style="127" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="65.3125" style="127" customWidth="1"/>
-    <col min="13" max="13" width="2.6875" style="127" customWidth="1"/>
+    <col min="12" max="12" width="65.28515625" style="127" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="127" customWidth="1"/>
     <col min="14" max="16" width="9" style="127"/>
-    <col min="17" max="17" width="14.3125" style="127" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="127" customWidth="1"/>
     <col min="18" max="18" width="9" style="127"/>
-    <col min="19" max="19" width="35.8125" style="127" customWidth="1"/>
-    <col min="20" max="20" width="71.3125" style="127" customWidth="1"/>
-    <col min="21" max="21" width="102.3125" style="127" customWidth="1"/>
+    <col min="19" max="19" width="35.78515625" style="127" customWidth="1"/>
+    <col min="20" max="20" width="71.28515625" style="127" customWidth="1"/>
+    <col min="21" max="21" width="102.28515625" style="127" customWidth="1"/>
     <col min="22" max="16384" width="9" style="127"/>
   </cols>
   <sheetData>
@@ -4000,19 +4000,19 @@
     </row>
     <row r="9" spans="1:233" hidden="1"/>
     <row r="10" spans="1:233" ht="57" customHeight="1">
-      <c r="B10" s="143" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
+      <c r="B10" s="135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
     </row>
     <row r="11" spans="1:233" ht="18.75" customHeight="1">
       <c r="C11" s="131"/>
@@ -4027,19 +4027,19 @@
       <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:233" ht="119.25" customHeight="1">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
     </row>
     <row r="14" spans="1:233">
       <c r="B14" s="94" t="s">
@@ -4048,16 +4048,16 @@
       <c r="C14" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
       <c r="L14" s="94" t="s">
         <v>61</v>
       </c>
@@ -4069,35 +4069,35 @@
       <c r="C15" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
       <c r="L15" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:233" s="130" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="127"/>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="145"/>
       <c r="M16" s="127"/>
       <c r="N16" s="127"/>
       <c r="O16" s="127"/>
@@ -4320,23 +4320,23 @@
       <c r="HX16" s="127"/>
       <c r="HY16" s="127"/>
     </row>
-    <row r="17" spans="2:13" ht="28.5">
+    <row r="17" spans="2:13" ht="29.15">
       <c r="B17" s="95" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
       <c r="L17" s="47" t="s">
         <v>70</v>
       </c>
@@ -4344,20 +4344,20 @@
     </row>
     <row r="19" spans="2:13" ht="33.75" customHeight="1">
       <c r="B19" s="139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
       <c r="E19" s="140"/>
       <c r="F19" s="141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G19" s="141"/>
       <c r="H19" s="141"/>
       <c r="I19" s="142"/>
       <c r="K19" s="129"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75">
+    <row r="20" spans="2:13" ht="15.9">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -4369,7 +4369,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75">
+    <row r="21" spans="2:13" ht="15.9">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -4412,16 +4412,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15.9"/>
   <cols>
-    <col min="2" max="2" width="22.6875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="45.6875" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="6" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="25.5">
+    <row r="3" spans="2:6" ht="26.15">
       <c r="B3" s="96" t="s">
         <v>71</v>
       </c>
@@ -4430,14 +4430,14 @@
       <c r="E3" s="90"/>
       <c r="F3" s="90"/>
     </row>
-    <row r="4" spans="2:6" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="2:6" ht="16.3" thickBot="1">
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
     </row>
-    <row r="5" spans="2:6" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="2:6" ht="16.3" thickBot="1">
       <c r="B5" s="98" t="s">
         <v>1</v>
       </c>
@@ -4530,17 +4530,17 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="3.6875" style="59" customWidth="1"/>
-    <col min="2" max="2" width="35.6875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="50" customWidth="1"/>
     <col min="3" max="3" width="45.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="26" style="50" customWidth="1"/>
-    <col min="5" max="6" width="65.3125" style="50" customWidth="1"/>
+    <col min="5" max="6" width="65.28515625" style="50" customWidth="1"/>
     <col min="7" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
@@ -4558,11 +4558,11 @@
       <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="110"/>
       <c r="G2" s="110"/>
     </row>
@@ -4571,11 +4571,11 @@
       <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="110"/>
       <c r="G3" s="110"/>
     </row>
@@ -4611,264 +4611,264 @@
       </c>
       <c r="G5" s="110"/>
     </row>
-    <row r="6" spans="1:7" ht="28.5">
+    <row r="6" spans="1:7" ht="29.15">
       <c r="A6" s="110"/>
       <c r="B6" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="166" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="F6" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="113" t="s">
-        <v>92</v>
-      </c>
       <c r="G6" s="110"/>
     </row>
-    <row r="7" spans="1:7" ht="28.5">
+    <row r="7" spans="1:7" ht="29.15">
       <c r="A7" s="110"/>
       <c r="B7" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>285</v>
-      </c>
       <c r="E7" s="134" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="110"/>
     </row>
-    <row r="8" spans="1:7" ht="28.5">
+    <row r="8" spans="1:7" ht="29.15">
       <c r="A8" s="110"/>
       <c r="B8" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="D8" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="E8" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="110"/>
     </row>
     <row r="9" spans="1:7" ht="48" customHeight="1">
       <c r="A9" s="110"/>
       <c r="B9" s="112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="E9" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F9" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="110"/>
     </row>
-    <row r="10" spans="1:7" ht="28.5">
+    <row r="10" spans="1:7" ht="29.15">
       <c r="A10" s="110"/>
       <c r="B10" s="112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="E10" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F10" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="110"/>
     </row>
-    <row r="11" spans="1:7" ht="28.5">
+    <row r="11" spans="1:7" ht="29.15">
       <c r="A11" s="110"/>
       <c r="B11" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="E11" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F11" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="110"/>
     </row>
-    <row r="12" spans="1:7" ht="28.5">
+    <row r="12" spans="1:7" ht="29.15">
       <c r="A12" s="110"/>
       <c r="B12" s="112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="E12" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F12" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="110"/>
     </row>
-    <row r="13" spans="1:7" ht="28.5">
+    <row r="13" spans="1:7" ht="29.15">
       <c r="A13" s="110"/>
       <c r="B13" s="112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="E13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F13" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="110"/>
     </row>
-    <row r="14" spans="1:7" ht="28.5">
+    <row r="14" spans="1:7" ht="29.15">
       <c r="A14" s="110"/>
       <c r="B14" s="112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="E14" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F14" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="110"/>
     </row>
-    <row r="15" spans="1:7" ht="28.5">
+    <row r="15" spans="1:7" ht="29.15">
       <c r="A15" s="110"/>
       <c r="B15" s="112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="E15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F15" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="110"/>
     </row>
-    <row r="16" spans="1:7" ht="28.5">
+    <row r="16" spans="1:7" ht="29.15">
       <c r="A16" s="110"/>
       <c r="B16" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="110"/>
+    </row>
+    <row r="17" spans="2:6" ht="29.15">
+      <c r="B17" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C17" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="E17" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="110"/>
-    </row>
-    <row r="17" spans="2:6" ht="28.5">
-      <c r="B17" s="112" t="s">
+      <c r="F17" s="113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="29.15">
+      <c r="B18" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C18" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="E18" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="28.5">
-      <c r="B18" s="112" t="s">
+      <c r="F18" s="113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="29.15">
+      <c r="B19" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C19" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="E19" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="28.5">
-      <c r="B19" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="F19" s="113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4985,30 +4985,30 @@
       <selection activeCell="L4" sqref="L4:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="4.1875" style="66" customWidth="1"/>
+    <col min="1" max="1" width="4.2109375" style="66" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="66" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="66" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="66" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1875" style="66" customWidth="1"/>
-    <col min="8" max="8" width="10.6875" style="66" customWidth="1"/>
-    <col min="9" max="9" width="11.1875" style="66" customWidth="1"/>
-    <col min="10" max="10" width="11.6875" style="66" customWidth="1"/>
-    <col min="11" max="11" width="22.6875" style="66" customWidth="1"/>
-    <col min="12" max="12" width="24.3125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="10.2109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="11.2109375" style="66" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="66" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="66" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="66" customWidth="1"/>
     <col min="14" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="B2" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>112</v>
       </c>
       <c r="D2" s="67"/>
       <c r="E2" s="68"/>
@@ -5023,329 +5023,329 @@
     <row r="3" spans="1:13" s="71" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="69"/>
       <c r="B3" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="D3" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="F3" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="G3" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="H3" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="I3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="J3" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="K3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="70" t="s">
-        <v>122</v>
-      </c>
       <c r="L3" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="73.5" customHeight="1">
       <c r="A4" s="72"/>
       <c r="B4" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="D4" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="E4" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="F4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="G4" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="H4" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="I4" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="J4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="K4" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="157" t="s">
+      <c r="L4" s="158" t="s">
         <v>132</v>
-      </c>
-      <c r="L4" s="157" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="63" customHeight="1">
       <c r="A5" s="72"/>
       <c r="B5" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="D5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="104" t="s">
+      <c r="F5" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="G5" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="104" t="s">
-        <v>138</v>
-      </c>
       <c r="H5" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="J5" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="D6" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="104" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>141</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="J6" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
     </row>
     <row r="7" spans="1:13" ht="63.75" customHeight="1">
       <c r="A7" s="72"/>
       <c r="B7" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="D7" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="104" t="s">
+      <c r="F7" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="G7" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="104" t="s">
-        <v>147</v>
-      </c>
       <c r="H7" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="J7" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
     </row>
     <row r="8" spans="1:13" ht="61.5" customHeight="1">
       <c r="A8" s="72"/>
       <c r="B8" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="D8" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="104" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>150</v>
       </c>
       <c r="F8" s="104"/>
       <c r="G8" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="104" t="s">
-        <v>152</v>
-      </c>
       <c r="I8" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:13" ht="63.75" customHeight="1">
       <c r="A9" s="72"/>
       <c r="B9" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="D9" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="104" t="s">
+      <c r="F9" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="G9" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="104" t="s">
-        <v>157</v>
-      </c>
       <c r="H9" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="J9" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
     </row>
     <row r="10" spans="1:13" ht="45" customHeight="1">
       <c r="A10" s="72"/>
       <c r="B10" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="D10" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="104" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>160</v>
       </c>
       <c r="F10" s="104"/>
       <c r="G10" s="104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="J10" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
     </row>
     <row r="11" spans="1:13" ht="45" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="D11" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="104" t="s">
+      <c r="F11" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="G11" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="H11" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="160"/>
+      <c r="L11" s="159"/>
+    </row>
+    <row r="12" spans="1:13" ht="43.75">
+      <c r="B12" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="C12" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="161"/>
-      <c r="L11" s="160"/>
-    </row>
-    <row r="12" spans="1:13" ht="42.75">
-      <c r="B12" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="104" t="s">
+      <c r="F12" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="104" t="s">
+      <c r="G12" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="104" t="s">
+      <c r="J12" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="K12" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="L12" s="160"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.45">
+      <c r="B15" s="73" t="s">
         <v>172</v>
-      </c>
-      <c r="L12" s="161"/>
-    </row>
-    <row r="15" spans="1:13" ht="18">
-      <c r="B15" s="73" t="s">
-        <v>173</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="74"/>
@@ -5363,195 +5363,195 @@
       <c r="B16" s="76"/>
       <c r="M16" s="77"/>
     </row>
-    <row r="17" spans="2:15" ht="18">
+    <row r="17" spans="2:15" ht="18.45">
       <c r="B17" s="76"/>
-      <c r="C17" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="159"/>
+      <c r="C17" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="157"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="76"/>
       <c r="C18" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="164"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="163"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="76"/>
       <c r="C19" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="163" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="164"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="163"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="76"/>
       <c r="C20" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="163" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="164"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="163"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="76"/>
       <c r="C21" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="163" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="164"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="163"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="76"/>
       <c r="C22" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="163" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="163"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="76"/>
       <c r="C23" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="164"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="163"/>
     </row>
     <row r="24" spans="2:15" ht="63" customHeight="1">
       <c r="B24" s="76"/>
       <c r="C24" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="156" t="s">
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="165"/>
+    </row>
+    <row r="25" spans="2:15" ht="18.45">
+      <c r="B25" s="76"/>
+      <c r="C25" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="165"/>
-    </row>
-    <row r="25" spans="2:15" ht="18">
-      <c r="B25" s="76"/>
-      <c r="C25" s="158" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="159"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="157"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="76"/>
       <c r="C26" s="122"/>
-      <c r="D26" s="163" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="164"/>
+      <c r="D26" s="162" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="163"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="76"/>
       <c r="C27" s="123"/>
-      <c r="D27" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="164"/>
+      <c r="D27" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="163"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="76"/>
@@ -5561,42 +5561,42 @@
       <c r="B29" s="76"/>
       <c r="C29" s="115"/>
       <c r="D29" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="F29" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="G29" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="H29" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="I29" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="J29" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="K29" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="L29" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="L29" s="108" t="s">
-        <v>200</v>
-      </c>
       <c r="M29" s="109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N29" s="115"/>
       <c r="O29" s="115"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="76"/>
-      <c r="C30" s="158" t="s">
-        <v>201</v>
+      <c r="C30" s="156" t="s">
+        <v>200</v>
       </c>
       <c r="D30" s="104">
         <v>4</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="76"/>
-      <c r="C31" s="158"/>
+      <c r="C31" s="156"/>
       <c r="D31" s="104">
         <v>5</v>
       </c>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="76"/>
-      <c r="C32" s="158"/>
+      <c r="C32" s="156"/>
       <c r="D32" s="104">
         <v>6</v>
       </c>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="76"/>
-      <c r="C33" s="158"/>
+      <c r="C33" s="156"/>
       <c r="D33" s="104">
         <v>7</v>
       </c>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="76"/>
-      <c r="C34" s="158"/>
+      <c r="C34" s="156"/>
       <c r="D34" s="104">
         <v>8</v>
       </c>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="76"/>
-      <c r="C35" s="158"/>
+      <c r="C35" s="156"/>
       <c r="D35" s="104">
         <v>9</v>
       </c>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="76"/>
-      <c r="C36" s="158"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="104">
         <v>10</v>
       </c>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="76"/>
-      <c r="C37" s="158"/>
+      <c r="C37" s="156"/>
       <c r="D37" s="104">
         <v>11</v>
       </c>
@@ -5871,11 +5871,11 @@
       <c r="N37" s="115"/>
       <c r="O37" s="115"/>
     </row>
-    <row r="38" spans="2:15" ht="28.5">
+    <row r="38" spans="2:15" ht="29.15">
       <c r="B38" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="158"/>
+        <v>201</v>
+      </c>
+      <c r="C38" s="156"/>
       <c r="D38" s="64">
         <v>12</v>
       </c>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="119"/>
-      <c r="C39" s="158"/>
+      <c r="C39" s="156"/>
       <c r="D39" s="104">
         <v>13</v>
       </c>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="119"/>
-      <c r="C40" s="158"/>
+      <c r="C40" s="156"/>
       <c r="D40" s="104">
         <v>14</v>
       </c>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="119"/>
-      <c r="C41" s="158"/>
+      <c r="C41" s="156"/>
       <c r="D41" s="104">
         <v>15</v>
       </c>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="119"/>
-      <c r="C42" s="158"/>
+      <c r="C42" s="156"/>
       <c r="D42" s="104">
         <v>16</v>
       </c>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="119"/>
-      <c r="C43" s="158"/>
+      <c r="C43" s="156"/>
       <c r="D43" s="104">
         <v>17</v>
       </c>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="119"/>
-      <c r="C44" s="158"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="104">
         <v>18</v>
       </c>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="119"/>
-      <c r="C45" s="158"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="104">
         <v>19</v>
       </c>
@@ -6133,11 +6133,11 @@
       <c r="N45" s="115"/>
       <c r="O45" s="115"/>
     </row>
-    <row r="46" spans="2:15" ht="28.5">
+    <row r="46" spans="2:15" ht="29.15">
       <c r="B46" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="158"/>
+        <v>202</v>
+      </c>
+      <c r="C46" s="156"/>
       <c r="D46" s="64">
         <v>20</v>
       </c>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="119"/>
-      <c r="C47" s="158"/>
+      <c r="C47" s="156"/>
       <c r="D47" s="104">
         <v>21</v>
       </c>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="119"/>
-      <c r="C48" s="158"/>
+      <c r="C48" s="156"/>
       <c r="D48" s="104">
         <v>22</v>
       </c>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="119"/>
-      <c r="C49" s="158"/>
+      <c r="C49" s="156"/>
       <c r="D49" s="104">
         <v>23</v>
       </c>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="119"/>
-      <c r="C50" s="158"/>
+      <c r="C50" s="156"/>
       <c r="D50" s="104">
         <v>24</v>
       </c>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="119"/>
-      <c r="C51" s="158"/>
+      <c r="C51" s="156"/>
       <c r="D51" s="104">
         <v>25</v>
       </c>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="119"/>
-      <c r="C52" s="158"/>
+      <c r="C52" s="156"/>
       <c r="D52" s="104">
         <v>26</v>
       </c>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="119"/>
-      <c r="C53" s="158"/>
+      <c r="C53" s="156"/>
       <c r="D53" s="104">
         <v>27</v>
       </c>
@@ -6383,11 +6383,11 @@
       <c r="N53" s="115"/>
       <c r="O53" s="115"/>
     </row>
-    <row r="54" spans="2:15" ht="28.5">
+    <row r="54" spans="2:15" ht="29.15">
       <c r="B54" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="158"/>
+        <v>203</v>
+      </c>
+      <c r="C54" s="156"/>
       <c r="D54" s="64">
         <v>28</v>
       </c>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="55" spans="2:15">
       <c r="B55" s="76"/>
-      <c r="C55" s="158"/>
+      <c r="C55" s="156"/>
       <c r="D55" s="104">
         <v>29</v>
       </c>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="56" spans="2:15">
       <c r="B56" s="76"/>
-      <c r="C56" s="158"/>
+      <c r="C56" s="156"/>
       <c r="D56" s="116">
         <v>30</v>
       </c>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="76"/>
-      <c r="C57" s="158"/>
+      <c r="C57" s="156"/>
       <c r="D57" s="116">
         <v>31</v>
       </c>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="76"/>
-      <c r="C58" s="158"/>
+      <c r="C58" s="156"/>
       <c r="D58" s="116">
         <v>32</v>
       </c>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="59" spans="2:15">
       <c r="B59" s="76"/>
-      <c r="C59" s="158"/>
+      <c r="C59" s="156"/>
       <c r="D59" s="116">
         <v>33</v>
       </c>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="60" spans="2:15">
       <c r="B60" s="76"/>
-      <c r="C60" s="158"/>
+      <c r="C60" s="156"/>
       <c r="D60" s="104">
         <v>34</v>
       </c>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="61" spans="2:15">
       <c r="B61" s="76"/>
-      <c r="C61" s="158"/>
+      <c r="C61" s="156"/>
       <c r="D61" s="104">
         <v>35</v>
       </c>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="62" spans="2:15">
       <c r="B62" s="76"/>
-      <c r="C62" s="158"/>
+      <c r="C62" s="156"/>
       <c r="D62" s="104">
         <v>36</v>
       </c>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="63" spans="2:15">
       <c r="B63" s="76"/>
-      <c r="C63" s="158"/>
+      <c r="C63" s="156"/>
       <c r="D63" s="104">
         <v>37</v>
       </c>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="64" spans="2:15">
       <c r="B64" s="76"/>
-      <c r="C64" s="158"/>
+      <c r="C64" s="156"/>
       <c r="D64" s="104">
         <v>38</v>
       </c>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="65" spans="2:20">
       <c r="B65" s="76"/>
-      <c r="C65" s="158"/>
+      <c r="C65" s="156"/>
       <c r="D65" s="104">
         <v>39</v>
       </c>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="76"/>
-      <c r="C66" s="158"/>
+      <c r="C66" s="156"/>
       <c r="D66" s="104">
         <v>40</v>
       </c>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="67" spans="2:20">
       <c r="B67" s="76"/>
-      <c r="C67" s="158"/>
+      <c r="C67" s="156"/>
       <c r="D67" s="63">
         <v>41</v>
       </c>
@@ -6767,20 +6767,20 @@
       <c r="S69" s="115"/>
       <c r="T69" s="115"/>
     </row>
-    <row r="70" spans="2:20" ht="18">
+    <row r="70" spans="2:20" ht="18.45">
       <c r="B70" s="76"/>
-      <c r="C70" s="162" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="162"/>
-      <c r="E70" s="162"/>
-      <c r="F70" s="162"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="162"/>
-      <c r="K70" s="162"/>
-      <c r="L70" s="162"/>
+      <c r="C70" s="161" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="161"/>
+      <c r="E70" s="161"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="161"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="161"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="161"/>
+      <c r="L70" s="161"/>
       <c r="M70" s="120"/>
       <c r="N70" s="115"/>
       <c r="O70" s="115"/>
@@ -6790,71 +6790,71 @@
       <c r="S70" s="115"/>
       <c r="T70" s="115"/>
     </row>
-    <row r="71" spans="2:20" ht="42.75">
+    <row r="71" spans="2:20" ht="43.75">
       <c r="B71" s="76"/>
       <c r="C71" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="80" t="s">
+      <c r="E71" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="80" t="s">
+      <c r="F71" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="F71" s="88" t="s">
+      <c r="G71" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="G71" s="87" t="s">
+      <c r="H71" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="L71" s="80" t="s">
         <v>210</v>
-      </c>
-      <c r="H71" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="I71" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="J71" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="K71" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="L71" s="80" t="s">
-        <v>211</v>
       </c>
       <c r="M71" s="77"/>
     </row>
     <row r="72" spans="2:20">
       <c r="B72" s="76"/>
       <c r="C72" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="116" t="s">
+      <c r="E72" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="116" t="s">
+      <c r="F72" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="116" t="s">
+      <c r="G72" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="116" t="s">
+      <c r="H72" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="H72" s="116" t="s">
+      <c r="I72" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="I72" s="116" t="s">
+      <c r="J72" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="J72" s="116" t="s">
+      <c r="K72" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="L72" s="116" t="s">
         <v>219</v>
-      </c>
-      <c r="K72" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="L72" s="116" t="s">
-        <v>220</v>
       </c>
       <c r="M72" s="120"/>
       <c r="O72" s="115"/>
@@ -6864,34 +6864,34 @@
     <row r="73" spans="2:20">
       <c r="B73" s="76"/>
       <c r="C73" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="116" t="s">
+      <c r="E73" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="116" t="s">
+      <c r="F73" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="F73" s="116" t="s">
-        <v>222</v>
-      </c>
-      <c r="G73" s="116" t="s">
+      <c r="H73" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="H73" s="116" t="s">
+      <c r="I73" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="I73" s="116" t="s">
+      <c r="J73" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="J73" s="116" t="s">
+      <c r="K73" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="L73" s="116" t="s">
         <v>227</v>
-      </c>
-      <c r="K73" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="L73" s="116" t="s">
-        <v>228</v>
       </c>
       <c r="M73" s="120"/>
       <c r="O73" s="115"/>
@@ -6901,34 +6901,34 @@
     <row r="74" spans="2:20">
       <c r="B74" s="76"/>
       <c r="C74" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="G74" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="F74" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="G74" s="116" t="s">
+      <c r="H74" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="H74" s="116" t="s">
+      <c r="I74" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="J74" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="I74" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="J74" s="116" t="s">
+      <c r="K74" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="L74" s="116" t="s">
         <v>232</v>
-      </c>
-      <c r="K74" s="116" t="s">
-        <v>228</v>
-      </c>
-      <c r="L74" s="116" t="s">
-        <v>233</v>
       </c>
       <c r="M74" s="120"/>
       <c r="O74" s="115"/>
@@ -6938,34 +6938,34 @@
     <row r="75" spans="2:20">
       <c r="B75" s="76"/>
       <c r="C75" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="H75" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="I75" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="J75" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="E75" s="116" t="s">
-        <v>231</v>
-      </c>
-      <c r="F75" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="G75" s="116" t="s">
+      <c r="K75" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="H75" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="I75" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="J75" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="K75" s="116" t="s">
-        <v>233</v>
-      </c>
       <c r="L75" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M75" s="120"/>
       <c r="O75" s="115"/>
@@ -6975,34 +6975,34 @@
     <row r="76" spans="2:20">
       <c r="B76" s="76"/>
       <c r="C76" s="116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="F76" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="G76" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="H76" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="J76" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="E76" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="F76" s="116" t="s">
-        <v>232</v>
-      </c>
-      <c r="G76" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="H76" s="116" t="s">
-        <v>228</v>
-      </c>
-      <c r="I76" s="116" t="s">
-        <v>232</v>
-      </c>
-      <c r="J76" s="116" t="s">
-        <v>233</v>
-      </c>
       <c r="K76" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L76" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M76" s="120"/>
       <c r="O76" s="115"/>
@@ -7012,34 +7012,34 @@
     <row r="77" spans="2:20">
       <c r="B77" s="76"/>
       <c r="C77" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F77" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G77" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H77" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I77" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J77" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K77" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L77" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M77" s="120"/>
       <c r="O77" s="115"/>
@@ -7049,34 +7049,34 @@
     <row r="78" spans="2:20">
       <c r="B78" s="76"/>
       <c r="C78" s="116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E78" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F78" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G78" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H78" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I78" s="116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J78" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K78" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L78" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M78" s="120"/>
       <c r="O78" s="115"/>
@@ -7325,27 +7325,27 @@
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="2.8125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="3.8125" style="60" customWidth="1"/>
+    <col min="1" max="1" width="2.78515625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="3.78515625" style="60" customWidth="1"/>
     <col min="3" max="3" width="81" style="61" customWidth="1"/>
-    <col min="4" max="4" width="59.1875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="59.2109375" style="86" customWidth="1"/>
     <col min="5" max="5" width="11" style="85" customWidth="1"/>
     <col min="6" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="57" customFormat="1" ht="15.75">
+    <row r="1" spans="2:5" s="57" customFormat="1" ht="15.9">
       <c r="B1" s="84"/>
       <c r="E1"/>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="111"/>
       <c r="C2" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="47.25" customHeight="1">
@@ -7353,10 +7353,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="112" t="s">
         <v>241</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="58.5" customHeight="1">
@@ -7365,10 +7365,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="48.75" customHeight="1">
@@ -7377,10 +7377,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="116" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="112" t="s">
         <v>245</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="60" customHeight="1">
@@ -7389,34 +7389,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="57">
+    </row>
+    <row r="7" spans="2:5" ht="58.3">
       <c r="B7" s="117">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="112" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="42.75">
+    </row>
+    <row r="8" spans="2:5" ht="43.75">
       <c r="B8" s="117">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="112" t="s">
         <v>251</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="48" customHeight="1">
@@ -7425,166 +7425,166 @@
         <v>7</v>
       </c>
       <c r="C9" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="112" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="57">
+    </row>
+    <row r="10" spans="2:5" ht="58.3">
       <c r="B10" s="117">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="112" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="57">
+    </row>
+    <row r="11" spans="2:5" ht="58.3">
       <c r="B11" s="117">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="112" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="28.5">
+    </row>
+    <row r="12" spans="2:5" ht="29.15">
       <c r="B12" s="117">
         <f t="shared" ref="B12:B22" si="2">B11+1</f>
         <v>10</v>
       </c>
       <c r="C12" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="112" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="42.75">
+    </row>
+    <row r="13" spans="2:5" ht="43.75">
       <c r="B13" s="117">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C13" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="112" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="42.75">
+    </row>
+    <row r="14" spans="2:5" ht="43.75">
       <c r="B14" s="117">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C14" s="116" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="112" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="42.75">
+    </row>
+    <row r="15" spans="2:5" ht="43.75">
       <c r="B15" s="117">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C15" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="112" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="57">
+    </row>
+    <row r="16" spans="2:5" ht="58.3">
       <c r="B16" s="117">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C16" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="112" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="112" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="57">
+    </row>
+    <row r="17" spans="2:4" ht="58.3">
       <c r="B17" s="117">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C17" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="112" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="57">
+    </row>
+    <row r="18" spans="2:4" ht="58.3">
       <c r="B18" s="117">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C18" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="112" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="112" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="42.75">
+    </row>
+    <row r="19" spans="2:4" ht="43.75">
       <c r="B19" s="117">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C19" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="112" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="112" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="71.25">
+    </row>
+    <row r="20" spans="2:4" ht="72.900000000000006">
       <c r="B20" s="117">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C20" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="57">
+    </row>
+    <row r="21" spans="2:4" ht="58.3">
       <c r="B21" s="117">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C21" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="42.75">
+    </row>
+    <row r="22" spans="2:4" ht="58.3">
       <c r="B22" s="117">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C22" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="112" t="s">
         <v>279</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7805,6 +7805,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
@@ -7863,15 +7872,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1D37FA-71CC-4512-8863-D04BAE552988}">
   <ds:schemaRefs>
@@ -7892,6 +7892,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7906,12 +7914,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>